--- a/Code/Results/Cases/Case_2_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_149/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01255539336583</v>
+        <v>1.523068561977681</v>
       </c>
       <c r="C2">
-        <v>0.1213335115797349</v>
+        <v>0.03943062122654339</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01362634243881189</v>
+        <v>0.04763032257267064</v>
       </c>
       <c r="F2">
-        <v>7.188167863418215</v>
+        <v>6.00853074385131</v>
       </c>
       <c r="G2">
-        <v>0.0008798365659461614</v>
+        <v>0.002668494548193342</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8299941437038143</v>
+        <v>0.5464607382105982</v>
       </c>
       <c r="K2">
-        <v>1.014371920265319</v>
+        <v>1.106373297567018</v>
       </c>
       <c r="L2">
-        <v>0.003000195225236979</v>
+        <v>0.1357192325528929</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9062184721985886</v>
+        <v>1.516457162708207</v>
       </c>
       <c r="C3">
-        <v>0.1044720032160313</v>
+        <v>0.03434834991520574</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0116777662217924</v>
+        <v>0.04845170421691236</v>
       </c>
       <c r="F3">
-        <v>6.500160303355187</v>
+        <v>5.812542000581487</v>
       </c>
       <c r="G3">
-        <v>0.000888755206488066</v>
+        <v>0.002673614036068076</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7542955512946463</v>
+        <v>0.522366911553604</v>
       </c>
       <c r="K3">
-        <v>0.8951105556855055</v>
+        <v>1.089308238722367</v>
       </c>
       <c r="L3">
-        <v>0.001292090530276013</v>
+        <v>0.1414356777043659</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.843531537687312</v>
+        <v>1.51367713576272</v>
       </c>
       <c r="C4">
-        <v>0.09427957060889014</v>
+        <v>0.03122369891895005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01056322533302989</v>
+        <v>0.04901043453154408</v>
       </c>
       <c r="F4">
-        <v>6.085246681021943</v>
+        <v>5.692770281592175</v>
       </c>
       <c r="G4">
-        <v>0.0008943672862284924</v>
+        <v>0.002676920212048881</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7084366744985573</v>
+        <v>0.5074412865761389</v>
       </c>
       <c r="K4">
-        <v>0.8242183588473893</v>
+        <v>1.07977379261672</v>
       </c>
       <c r="L4">
-        <v>0.0005966237245775829</v>
+        <v>0.145188388202051</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8185826945243093</v>
+        <v>1.512865755162636</v>
       </c>
       <c r="C5">
-        <v>0.09015993618753271</v>
+        <v>0.0299492340242864</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01012758124750235</v>
+        <v>0.04925176388660546</v>
       </c>
       <c r="F5">
-        <v>5.917793045404551</v>
+        <v>5.644100068471403</v>
       </c>
       <c r="G5">
-        <v>0.0008966903205243773</v>
+        <v>0.002678308585941767</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6898740201142175</v>
+        <v>0.5013249584952035</v>
       </c>
       <c r="K5">
-        <v>0.7958570752304297</v>
+        <v>1.076125270785639</v>
       </c>
       <c r="L5">
-        <v>0.0003938400893179761</v>
+        <v>0.1467785608128835</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8144743835375152</v>
+        <v>1.512750438171935</v>
       </c>
       <c r="C6">
-        <v>0.08947773942986714</v>
+        <v>0.02973753781638777</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01005630604431396</v>
+        <v>0.04929265932978666</v>
       </c>
       <c r="F6">
-        <v>5.890078434480358</v>
+        <v>5.636026601210119</v>
       </c>
       <c r="G6">
-        <v>0.0008970782887699541</v>
+        <v>0.00267854160982547</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6867984170191477</v>
+        <v>0.5003072679002543</v>
       </c>
       <c r="K6">
-        <v>0.7911779538423218</v>
+        <v>1.075533729087255</v>
       </c>
       <c r="L6">
-        <v>0.0003648117731867018</v>
+        <v>0.1470462827100674</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8431927265967545</v>
+        <v>1.513664891731537</v>
       </c>
       <c r="C7">
-        <v>0.09422388286955652</v>
+        <v>0.0312065158154553</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01055727759766967</v>
+        <v>0.04901363399569725</v>
       </c>
       <c r="F7">
-        <v>6.082982089267517</v>
+        <v>5.692113346524224</v>
       </c>
       <c r="G7">
-        <v>0.0008943984671014777</v>
+        <v>0.002676938769674091</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.7081858638798479</v>
+        <v>0.5073589384585091</v>
       </c>
       <c r="K7">
-        <v>0.8238338058688157</v>
+        <v>1.079723628971323</v>
       </c>
       <c r="L7">
-        <v>0.0005935727702031102</v>
+        <v>0.1452095873789343</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9753131026646145</v>
+        <v>1.520523270846695</v>
       </c>
       <c r="C8">
-        <v>0.1154822191415121</v>
+        <v>0.03767904090902618</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01293618277176378</v>
+        <v>0.0479022222754768</v>
       </c>
       <c r="F8">
-        <v>6.949213644095494</v>
+        <v>5.940833458969564</v>
       </c>
       <c r="G8">
-        <v>0.0008828846602440705</v>
+        <v>0.002670226048301696</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8037451219269087</v>
+        <v>0.5381800526206177</v>
       </c>
       <c r="K8">
-        <v>0.9727286517560003</v>
+        <v>1.100293157150531</v>
       </c>
       <c r="L8">
-        <v>0.002332711420970135</v>
+        <v>0.1376397880543232</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.25800646153948</v>
+        <v>1.544138340703881</v>
       </c>
       <c r="C9">
-        <v>0.1587726447432658</v>
+        <v>0.05034451374599769</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01835422132206865</v>
+        <v>0.04615606416521878</v>
       </c>
       <c r="F9">
-        <v>8.720956313865202</v>
+        <v>6.433299520019659</v>
       </c>
       <c r="G9">
-        <v>0.0008612919026583021</v>
+        <v>0.002658347433594435</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9976055707189744</v>
+        <v>0.5976137506560377</v>
       </c>
       <c r="K9">
-        <v>1.286224051739936</v>
+        <v>1.148140935926193</v>
       </c>
       <c r="L9">
-        <v>0.008963065517677116</v>
+        <v>0.1247280528290959</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.484739494431835</v>
+        <v>1.567712499916183</v>
       </c>
       <c r="C10">
-        <v>0.1920737389113327</v>
+        <v>0.05964181614049835</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02295681950150197</v>
+        <v>0.04513970525804289</v>
       </c>
       <c r="F10">
-        <v>10.08821642960865</v>
+        <v>6.798357308289013</v>
       </c>
       <c r="G10">
-        <v>0.0008458828515470704</v>
+        <v>0.002650394255884064</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.146411652097328</v>
+        <v>0.6407252275300834</v>
       </c>
       <c r="K10">
-        <v>1.534383634800747</v>
+        <v>1.18791435773133</v>
       </c>
       <c r="L10">
-        <v>0.0164606065974473</v>
+        <v>0.1164284442196069</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.593236575321384</v>
+        <v>1.579795068222296</v>
       </c>
       <c r="C11">
-        <v>0.2076833332020129</v>
+        <v>0.06387156007068029</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02522845366744342</v>
+        <v>0.04473574130287261</v>
       </c>
       <c r="F11">
-        <v>10.72992100064016</v>
+        <v>6.965216740502854</v>
       </c>
       <c r="G11">
-        <v>0.0008389341228785113</v>
+        <v>0.002646942228610179</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.216125156163599</v>
+        <v>0.6602303345382268</v>
       </c>
       <c r="K11">
-        <v>1.652384905446809</v>
+        <v>1.207020954458216</v>
       </c>
       <c r="L11">
-        <v>0.02061810103058681</v>
+        <v>0.1129122829635243</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.635210383376545</v>
+        <v>1.584566237504049</v>
       </c>
       <c r="C12">
-        <v>0.2136737008760718</v>
+        <v>0.06547344220777518</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02611843712512929</v>
+        <v>0.04459121027112722</v>
       </c>
       <c r="F12">
-        <v>10.97628525521344</v>
+        <v>7.028521975997876</v>
       </c>
       <c r="G12">
-        <v>0.0008363079638036876</v>
+        <v>0.002645658740813959</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.242875933565159</v>
+        <v>0.6676020780883221</v>
       </c>
       <c r="K12">
-        <v>1.697924455618903</v>
+        <v>1.214402535931413</v>
       </c>
       <c r="L12">
-        <v>0.02231736528645234</v>
+        <v>0.1116182695393633</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.626128996217489</v>
+        <v>1.583529967574179</v>
       </c>
       <c r="C13">
-        <v>0.2123798099214298</v>
+        <v>0.06512843876315344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02592536614374374</v>
+        <v>0.04462196144358721</v>
       </c>
       <c r="F13">
-        <v>10.9230674611814</v>
+        <v>7.014882676448053</v>
       </c>
       <c r="G13">
-        <v>0.000836873386542898</v>
+        <v>0.002645934110094919</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.237097961182712</v>
+        <v>0.6660150680158949</v>
       </c>
       <c r="K13">
-        <v>1.688076574429715</v>
+        <v>1.212806262661786</v>
       </c>
       <c r="L13">
-        <v>0.02194553421584899</v>
+        <v>0.1118952885690883</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.596671243816388</v>
+        <v>1.580183669426219</v>
       </c>
       <c r="C14">
-        <v>0.208174492264618</v>
+        <v>0.06400334378572836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02530105042737496</v>
+        <v>0.04472368120472403</v>
       </c>
       <c r="F14">
-        <v>10.75011881701545</v>
+        <v>6.970422481608352</v>
       </c>
       <c r="G14">
-        <v>0.0008387179855997185</v>
+        <v>0.002646836160602906</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.218318526889419</v>
+        <v>0.6608370960737489</v>
       </c>
       <c r="K14">
-        <v>1.656113586767873</v>
+        <v>1.207625305513659</v>
       </c>
       <c r="L14">
-        <v>0.02075528694338935</v>
+        <v>0.1128050714725806</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.578747006785505</v>
+        <v>1.578159471620694</v>
       </c>
       <c r="C15">
-        <v>0.2056093685466607</v>
+        <v>0.06331421630819989</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02492265000995353</v>
+        <v>0.04478708818546018</v>
       </c>
       <c r="F15">
-        <v>10.64463787183939</v>
+        <v>6.943205005756397</v>
       </c>
       <c r="G15">
-        <v>0.0008398484150671012</v>
+        <v>0.002647391777651881</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.20686335767931</v>
+        <v>0.6576635880552431</v>
       </c>
       <c r="K15">
-        <v>1.636650537565885</v>
+        <v>1.204470893808121</v>
       </c>
       <c r="L15">
-        <v>0.02004305990978494</v>
+        <v>0.1133672263404133</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.477766443147544</v>
+        <v>1.566950247410688</v>
       </c>
       <c r="C16">
-        <v>0.1910639648069576</v>
+        <v>0.05936540969408099</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02281228649253464</v>
+        <v>0.04516728397742575</v>
       </c>
       <c r="F16">
-        <v>10.04672000204087</v>
+        <v>6.787469046771889</v>
       </c>
       <c r="G16">
-        <v>0.0008463378972846334</v>
+        <v>0.00265062318081191</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.141901414263032</v>
+        <v>0.6394484562576395</v>
       </c>
       <c r="K16">
-        <v>1.526784710770414</v>
+        <v>1.186686140460353</v>
       </c>
       <c r="L16">
-        <v>0.01620536948606954</v>
+        <v>0.1166634684279382</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.417268699943634</v>
+        <v>1.560421992337155</v>
       </c>
       <c r="C17">
-        <v>0.1822675960571019</v>
+        <v>0.05694311968925092</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02156600042033219</v>
+        <v>0.04541550750283641</v>
       </c>
       <c r="F17">
-        <v>9.685323251073783</v>
+        <v>6.692136802562402</v>
       </c>
       <c r="G17">
-        <v>0.0008503321850491033</v>
+        <v>0.002652647938068957</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.102607889214397</v>
+        <v>0.6282474188943468</v>
       </c>
       <c r="K17">
-        <v>1.460775048141073</v>
+        <v>1.176035759036267</v>
       </c>
       <c r="L17">
-        <v>0.01405399292565157</v>
+        <v>0.1187521667535014</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.382968048787575</v>
+        <v>1.556794961868633</v>
       </c>
       <c r="C18">
-        <v>0.1772506418783877</v>
+        <v>0.05554990870557219</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02086562998807295</v>
+        <v>0.04556377158514557</v>
       </c>
       <c r="F18">
-        <v>9.479279036673233</v>
+        <v>6.63737852570506</v>
       </c>
       <c r="G18">
-        <v>0.0008526355692956401</v>
+        <v>0.002653828149519515</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.080193380392274</v>
+        <v>0.6217947980229326</v>
       </c>
       <c r="K18">
-        <v>1.423281119548477</v>
+        <v>1.170005297079825</v>
       </c>
       <c r="L18">
-        <v>0.01288567848874411</v>
+        <v>0.119977932968431</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.371436299191828</v>
+        <v>1.555588857953921</v>
       </c>
       <c r="C19">
-        <v>0.1755589144518694</v>
+        <v>0.05507819229852373</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0206312058179261</v>
+        <v>0.04561491320409239</v>
       </c>
       <c r="F19">
-        <v>9.409813966671891</v>
+        <v>6.618850919921243</v>
       </c>
       <c r="G19">
-        <v>0.0008534165835859989</v>
+        <v>0.002654230436954906</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.07263444467111</v>
+        <v>0.6196082928358777</v>
       </c>
       <c r="K19">
-        <v>1.410664189765185</v>
+        <v>1.167979845978863</v>
       </c>
       <c r="L19">
-        <v>0.01250148435567233</v>
+        <v>0.1203971419242764</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.423656645074772</v>
+        <v>1.561103701517226</v>
       </c>
       <c r="C20">
-        <v>0.1831994985003575</v>
+        <v>0.05720097302832983</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02169693771809023</v>
+        <v>0.04538851490515228</v>
       </c>
       <c r="F20">
-        <v>9.723602429691596</v>
+        <v>6.702277354779596</v>
       </c>
       <c r="G20">
-        <v>0.0008499063922973042</v>
+        <v>0.002652430783009141</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.106771076331285</v>
+        <v>0.629440825200362</v>
       </c>
       <c r="K20">
-        <v>1.467752112298541</v>
+        <v>1.177159637155484</v>
       </c>
       <c r="L20">
-        <v>0.01427574059059644</v>
+        <v>0.1185272944122415</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.605298563028555</v>
+        <v>1.581161242039656</v>
       </c>
       <c r="C21">
-        <v>0.2094074286314225</v>
+        <v>0.0643338058866334</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0254835828408595</v>
+        <v>0.04469357417919362</v>
       </c>
       <c r="F21">
-        <v>10.8008221369634</v>
+        <v>6.983478242073261</v>
       </c>
       <c r="G21">
-        <v>0.0008381760728082336</v>
+        <v>0.002646570563928651</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.223824423671829</v>
+        <v>0.6623583760164422</v>
       </c>
       <c r="K21">
-        <v>1.665477643723278</v>
+        <v>1.209143102095993</v>
       </c>
       <c r="L21">
-        <v>0.02110134804470221</v>
+        <v>0.1125368274912866</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.72925774550194</v>
+        <v>1.595411262726827</v>
       </c>
       <c r="C22">
-        <v>0.2270058598083864</v>
+        <v>0.06899657111361535</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02813427886738218</v>
+        <v>0.0442886147557946</v>
       </c>
       <c r="F22">
-        <v>11.52476032759654</v>
+        <v>7.167956470064041</v>
       </c>
       <c r="G22">
-        <v>0.0008305377518291763</v>
+        <v>0.002642878767498148</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.302411007941998</v>
+        <v>0.6837882871829777</v>
       </c>
       <c r="K22">
-        <v>1.799755276885008</v>
+        <v>1.230899345951116</v>
       </c>
       <c r="L22">
-        <v>0.0263005762598354</v>
+        <v>0.1088402639851713</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.662574693350962</v>
+        <v>1.587701194469133</v>
       </c>
       <c r="C23">
-        <v>0.2175654012286117</v>
+        <v>0.06650783010977079</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02670190677181061</v>
+        <v>0.04450022979330193</v>
       </c>
       <c r="F23">
-        <v>11.1363645025304</v>
+        <v>7.069431441068446</v>
       </c>
       <c r="G23">
-        <v>0.0008346132128595826</v>
+        <v>0.002644836549330525</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.260254481798569</v>
+        <v>0.6723580913541127</v>
       </c>
       <c r="K23">
-        <v>1.727582150161965</v>
+        <v>1.219209360236448</v>
       </c>
       <c r="L23">
-        <v>0.02345156153499905</v>
+        <v>0.1107931303957761</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.420767167744145</v>
+        <v>1.560795107878278</v>
       </c>
       <c r="C24">
-        <v>0.1827780611704668</v>
+        <v>0.0570843994261736</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02163769101364643</v>
+        <v>0.04540070095233162</v>
       </c>
       <c r="F24">
-        <v>9.706291070858867</v>
+        <v>6.697692657312359</v>
       </c>
       <c r="G24">
-        <v>0.0008500988708352657</v>
+        <v>0.002652528908482615</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.104888356170534</v>
+        <v>0.6289013267711425</v>
       </c>
       <c r="K24">
-        <v>1.464596370381514</v>
+        <v>1.176651243512623</v>
       </c>
       <c r="L24">
-        <v>0.01417527627017456</v>
+        <v>0.1186288815064831</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.178557909214504</v>
+        <v>1.536658821666634</v>
       </c>
       <c r="C25">
-        <v>0.1468400928164897</v>
+        <v>0.04692019653680291</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01679228646019482</v>
+        <v>0.04658181274767337</v>
       </c>
       <c r="F25">
-        <v>8.231811478034047</v>
+        <v>6.299531282200405</v>
       </c>
       <c r="G25">
-        <v>0.0008670418449699223</v>
+        <v>0.002661424311464301</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9442348911883869</v>
+        <v>0.5816370202915238</v>
       </c>
       <c r="K25">
-        <v>1.198659734394511</v>
+        <v>1.134388595988071</v>
       </c>
       <c r="L25">
-        <v>0.006761528363616875</v>
+        <v>0.1280132563442749</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_149/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.523068561977681</v>
+        <v>1.012555393366426</v>
       </c>
       <c r="C2">
-        <v>0.03943062122654339</v>
+        <v>0.1213335115807013</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04763032257267064</v>
+        <v>0.01362634243883498</v>
       </c>
       <c r="F2">
-        <v>6.00853074385131</v>
+        <v>7.188167863418187</v>
       </c>
       <c r="G2">
-        <v>0.002668494548193342</v>
+        <v>0.000879836566070783</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5464607382105982</v>
+        <v>0.8299941437038854</v>
       </c>
       <c r="K2">
-        <v>1.106373297567018</v>
+        <v>1.014371920265319</v>
       </c>
       <c r="L2">
-        <v>0.1357192325528929</v>
+        <v>0.00300019522524142</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.516457162708207</v>
+        <v>0.9062184721981623</v>
       </c>
       <c r="C3">
-        <v>0.03434834991520574</v>
+        <v>0.1044720032156334</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04845170421691236</v>
+        <v>0.01167776622175332</v>
       </c>
       <c r="F3">
-        <v>5.812542000581487</v>
+        <v>6.500160303355159</v>
       </c>
       <c r="G3">
-        <v>0.002673614036068076</v>
+        <v>0.0008887552065102455</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.522366911553604</v>
+        <v>0.754295551294959</v>
       </c>
       <c r="K3">
-        <v>1.089308238722367</v>
+        <v>0.895110555685477</v>
       </c>
       <c r="L3">
-        <v>0.1414356777043659</v>
+        <v>0.001292090530049528</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.51367713576272</v>
+        <v>0.8435315376871131</v>
       </c>
       <c r="C4">
-        <v>0.03122369891895005</v>
+        <v>0.09427957060921699</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04901043453154408</v>
+        <v>0.01056322533302989</v>
       </c>
       <c r="F4">
-        <v>5.692770281592175</v>
+        <v>6.085246681021886</v>
       </c>
       <c r="G4">
-        <v>0.002676920212048881</v>
+        <v>0.0008943672863294493</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5074412865761389</v>
+        <v>0.7084366744984436</v>
       </c>
       <c r="K4">
-        <v>1.07977379261672</v>
+        <v>0.8242183588473608</v>
       </c>
       <c r="L4">
-        <v>0.145188388202051</v>
+        <v>0.0005966237244443562</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.512865755162636</v>
+        <v>0.8185826945244798</v>
       </c>
       <c r="C5">
-        <v>0.0299492340242864</v>
+        <v>0.09015993618795903</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04925176388660546</v>
+        <v>0.01012758124754676</v>
       </c>
       <c r="F5">
-        <v>5.644100068471403</v>
+        <v>5.917793045404636</v>
       </c>
       <c r="G5">
-        <v>0.002678308585941767</v>
+        <v>0.0008966903207078795</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5013249584952035</v>
+        <v>0.6898740201142601</v>
       </c>
       <c r="K5">
-        <v>1.076125270785639</v>
+        <v>0.7958570752304013</v>
       </c>
       <c r="L5">
-        <v>0.1467785608128835</v>
+        <v>0.0003938400893348515</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.512750438171935</v>
+        <v>0.8144743835373163</v>
       </c>
       <c r="C6">
-        <v>0.02973753781638777</v>
+        <v>0.08947773942868764</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04929265932978666</v>
+        <v>0.01005630604428198</v>
       </c>
       <c r="F6">
-        <v>5.636026601210119</v>
+        <v>5.890078434480358</v>
       </c>
       <c r="G6">
-        <v>0.00267854160982547</v>
+        <v>0.0008970782887931533</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5003072679002543</v>
+        <v>0.6867984170192756</v>
       </c>
       <c r="K6">
-        <v>1.075533729087255</v>
+        <v>0.7911779538423787</v>
       </c>
       <c r="L6">
-        <v>0.1470462827100674</v>
+        <v>0.0003648117729797562</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.513664891731537</v>
+        <v>0.8431927265970387</v>
       </c>
       <c r="C7">
-        <v>0.0312065158154553</v>
+        <v>0.09422388286897387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04901363399569725</v>
+        <v>0.01055727759770519</v>
       </c>
       <c r="F7">
-        <v>5.692113346524224</v>
+        <v>6.082982089267631</v>
       </c>
       <c r="G7">
-        <v>0.002676938769674091</v>
+        <v>0.0008943984673034967</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5073589384585091</v>
+        <v>0.708185863879919</v>
       </c>
       <c r="K7">
-        <v>1.079723628971323</v>
+        <v>0.8238338058689862</v>
       </c>
       <c r="L7">
-        <v>0.1452095873789343</v>
+        <v>0.0005935727701054105</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.520523270846695</v>
+        <v>0.9753131026644155</v>
       </c>
       <c r="C8">
-        <v>0.03767904090902618</v>
+        <v>0.1154822191420379</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0479022222754768</v>
+        <v>0.01293618277166608</v>
       </c>
       <c r="F8">
-        <v>5.940833458969564</v>
+        <v>6.949213644095408</v>
       </c>
       <c r="G8">
-        <v>0.002670226048301696</v>
+        <v>0.0008828846603769867</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5381800526206177</v>
+        <v>0.8037451219268519</v>
       </c>
       <c r="K8">
-        <v>1.100293157150531</v>
+        <v>0.972728651756114</v>
       </c>
       <c r="L8">
-        <v>0.1376397880543232</v>
+        <v>0.002332711420955924</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.544138340703881</v>
+        <v>1.258006461539537</v>
       </c>
       <c r="C9">
-        <v>0.05034451374599769</v>
+        <v>0.1587726447437632</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04615606416521878</v>
+        <v>0.01835422132196207</v>
       </c>
       <c r="F9">
-        <v>6.433299520019659</v>
+        <v>8.720956313865145</v>
       </c>
       <c r="G9">
-        <v>0.002658347433594435</v>
+        <v>0.0008612919024226555</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5976137506560377</v>
+        <v>0.9976055707188465</v>
       </c>
       <c r="K9">
-        <v>1.148140935926193</v>
+        <v>1.286224051739936</v>
       </c>
       <c r="L9">
-        <v>0.1247280528290959</v>
+        <v>0.008963065517661128</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.567712499916183</v>
+        <v>1.484739494432063</v>
       </c>
       <c r="C10">
-        <v>0.05964181614049835</v>
+        <v>0.1920737389113185</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04513970525804289</v>
+        <v>0.02295681950156947</v>
       </c>
       <c r="F10">
-        <v>6.798357308289013</v>
+        <v>10.08821642960871</v>
       </c>
       <c r="G10">
-        <v>0.002650394255884064</v>
+        <v>0.000845882851522147</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6407252275300834</v>
+        <v>1.146411652097612</v>
       </c>
       <c r="K10">
-        <v>1.18791435773133</v>
+        <v>1.534383634800548</v>
       </c>
       <c r="L10">
-        <v>0.1164284442196069</v>
+        <v>0.01646060659756365</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.579795068222296</v>
+        <v>1.593236575321271</v>
       </c>
       <c r="C11">
-        <v>0.06387156007068029</v>
+        <v>0.2076833332025103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04473574130287261</v>
+        <v>0.02522845366747539</v>
       </c>
       <c r="F11">
-        <v>6.965216740502854</v>
+        <v>10.72992100064022</v>
       </c>
       <c r="G11">
-        <v>0.002646942228610179</v>
+        <v>0.000838934122610877</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6602303345382268</v>
+        <v>1.216125156163628</v>
       </c>
       <c r="K11">
-        <v>1.207020954458216</v>
+        <v>1.652384905446752</v>
       </c>
       <c r="L11">
-        <v>0.1129122829635243</v>
+        <v>0.02061810103032791</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.584566237504049</v>
+        <v>1.63521038337683</v>
       </c>
       <c r="C12">
-        <v>0.06547344220777518</v>
+        <v>0.2136737008761713</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04459121027112722</v>
+        <v>0.0261184371250458</v>
       </c>
       <c r="F12">
-        <v>7.028521975997876</v>
+        <v>10.97628525521327</v>
       </c>
       <c r="G12">
-        <v>0.002645658740813959</v>
+        <v>0.0008363079641176173</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6676020780883221</v>
+        <v>1.242875933565216</v>
       </c>
       <c r="K12">
-        <v>1.214402535931413</v>
+        <v>1.697924455619244</v>
       </c>
       <c r="L12">
-        <v>0.1116182695393633</v>
+        <v>0.02231736528633865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.583529967574179</v>
+        <v>1.626128996218</v>
       </c>
       <c r="C13">
-        <v>0.06512843876315344</v>
+        <v>0.2123798099218988</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04462196144358721</v>
+        <v>0.02592536614387164</v>
       </c>
       <c r="F13">
-        <v>7.014882676448053</v>
+        <v>10.92306746118157</v>
       </c>
       <c r="G13">
-        <v>0.002645934110094919</v>
+        <v>0.0008368733866295485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6660150680158949</v>
+        <v>1.237097961182684</v>
       </c>
       <c r="K13">
-        <v>1.212806262661786</v>
+        <v>1.688076574429999</v>
       </c>
       <c r="L13">
-        <v>0.1118952885690883</v>
+        <v>0.02194553421591827</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.580183669426219</v>
+        <v>1.596671243816303</v>
       </c>
       <c r="C14">
-        <v>0.06400334378572836</v>
+        <v>0.2081744922641207</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04472368120472403</v>
+        <v>0.02530105042736075</v>
       </c>
       <c r="F14">
-        <v>6.970422481608352</v>
+        <v>10.75011881701562</v>
       </c>
       <c r="G14">
-        <v>0.002646836160602906</v>
+        <v>0.0008387179858468861</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6608370960737489</v>
+        <v>1.218318526889618</v>
       </c>
       <c r="K14">
-        <v>1.207625305513659</v>
+        <v>1.656113586768015</v>
       </c>
       <c r="L14">
-        <v>0.1128050714725806</v>
+        <v>0.02075528694389872</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.578159471620694</v>
+        <v>1.578747006785761</v>
       </c>
       <c r="C15">
-        <v>0.06331421630819989</v>
+        <v>0.205609368547556</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04478708818546018</v>
+        <v>0.02492265000983984</v>
       </c>
       <c r="F15">
-        <v>6.943205005756397</v>
+        <v>10.64463787183951</v>
       </c>
       <c r="G15">
-        <v>0.002647391777651881</v>
+        <v>0.0008398484149292316</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6576635880552431</v>
+        <v>1.206863357679595</v>
       </c>
       <c r="K15">
-        <v>1.204470893808121</v>
+        <v>1.636650537565714</v>
       </c>
       <c r="L15">
-        <v>0.1133672263404133</v>
+        <v>0.02004305990963218</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.566950247410688</v>
+        <v>1.477766443147971</v>
       </c>
       <c r="C16">
-        <v>0.05936540969408099</v>
+        <v>0.191063964807924</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04516728397742575</v>
+        <v>0.02281228649262879</v>
       </c>
       <c r="F16">
-        <v>6.787469046771889</v>
+        <v>10.04672000204096</v>
       </c>
       <c r="G16">
-        <v>0.00265062318081191</v>
+        <v>0.0008463378976656938</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6394484562576395</v>
+        <v>1.141901414263174</v>
       </c>
       <c r="K16">
-        <v>1.186686140460353</v>
+        <v>1.526784710770499</v>
       </c>
       <c r="L16">
-        <v>0.1166634684279382</v>
+        <v>0.01620536948570894</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.560421992337155</v>
+        <v>1.417268699943577</v>
       </c>
       <c r="C17">
-        <v>0.05694311968925092</v>
+        <v>0.182267596057045</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04541550750283641</v>
+        <v>0.02156600042026291</v>
       </c>
       <c r="F17">
-        <v>6.692136802562402</v>
+        <v>9.685323251073925</v>
       </c>
       <c r="G17">
-        <v>0.002652647938068957</v>
+        <v>0.0008503321847921562</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6282474188943468</v>
+        <v>1.102607889214454</v>
       </c>
       <c r="K17">
-        <v>1.176035759036267</v>
+        <v>1.460775048141102</v>
       </c>
       <c r="L17">
-        <v>0.1187521667535014</v>
+        <v>0.01405399292570575</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.556794961868633</v>
+        <v>1.382968048787319</v>
       </c>
       <c r="C18">
-        <v>0.05554990870557219</v>
+        <v>0.1772506418780324</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04556377158514557</v>
+        <v>0.0208656299880623</v>
       </c>
       <c r="F18">
-        <v>6.63737852570506</v>
+        <v>9.479279036673063</v>
       </c>
       <c r="G18">
-        <v>0.002653828149519515</v>
+        <v>0.0008526355691876208</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6217947980229326</v>
+        <v>1.080193380392245</v>
       </c>
       <c r="K18">
-        <v>1.170005297079825</v>
+        <v>1.423281119548534</v>
       </c>
       <c r="L18">
-        <v>0.119977932968431</v>
+        <v>0.01288567848893685</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.555588857953921</v>
+        <v>1.371436299192396</v>
       </c>
       <c r="C19">
-        <v>0.05507819229852373</v>
+        <v>0.1755589144518552</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04561491320409239</v>
+        <v>0.02063120581783551</v>
       </c>
       <c r="F19">
-        <v>6.618850919921243</v>
+        <v>9.409813966671805</v>
       </c>
       <c r="G19">
-        <v>0.002654230436954906</v>
+        <v>0.0008534165834825851</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6196082928358777</v>
+        <v>1.072634444671209</v>
       </c>
       <c r="K19">
-        <v>1.167979845978863</v>
+        <v>1.410664189765043</v>
       </c>
       <c r="L19">
-        <v>0.1203971419242764</v>
+        <v>0.01250148435556131</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.561103701517226</v>
+        <v>1.42365664507426</v>
       </c>
       <c r="C20">
-        <v>0.05720097302832983</v>
+        <v>0.1831994984999739</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04538851490515228</v>
+        <v>0.02169693771821279</v>
       </c>
       <c r="F20">
-        <v>6.702277354779596</v>
+        <v>9.723602429691397</v>
       </c>
       <c r="G20">
-        <v>0.002652430783009141</v>
+        <v>0.0008499063924559928</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.629440825200362</v>
+        <v>1.106771076331484</v>
       </c>
       <c r="K20">
-        <v>1.177159637155484</v>
+        <v>1.467752112298456</v>
       </c>
       <c r="L20">
-        <v>0.1185272944122415</v>
+        <v>0.01427574059058223</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.581161242039656</v>
+        <v>1.605298563028242</v>
       </c>
       <c r="C21">
-        <v>0.0643338058866334</v>
+        <v>0.2094074286311667</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04469357417919362</v>
+        <v>0.02548358284097496</v>
       </c>
       <c r="F21">
-        <v>6.983478242073261</v>
+        <v>10.8008221369634</v>
       </c>
       <c r="G21">
-        <v>0.002646570563928651</v>
+        <v>0.0008381760729673541</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6623583760164422</v>
+        <v>1.223824423671914</v>
       </c>
       <c r="K21">
-        <v>1.209143102095993</v>
+        <v>1.665477643723023</v>
       </c>
       <c r="L21">
-        <v>0.1125368274912866</v>
+        <v>0.02110134804464625</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.595411262726827</v>
+        <v>1.729257745501712</v>
       </c>
       <c r="C22">
-        <v>0.06899657111361535</v>
+        <v>0.2270058598087417</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0442886147557946</v>
+        <v>0.02813427886732001</v>
       </c>
       <c r="F22">
-        <v>7.167956470064041</v>
+        <v>11.52476032759682</v>
       </c>
       <c r="G22">
-        <v>0.002642878767498148</v>
+        <v>0.0008305377518066379</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6837882871829777</v>
+        <v>1.302411007941743</v>
       </c>
       <c r="K22">
-        <v>1.230899345951116</v>
+        <v>1.79975527688498</v>
       </c>
       <c r="L22">
-        <v>0.1088402639851713</v>
+        <v>0.02630057626011517</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.587701194469133</v>
+        <v>1.66257469335099</v>
       </c>
       <c r="C23">
-        <v>0.06650783010977079</v>
+        <v>0.2175654012289669</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04450022979330193</v>
+        <v>0.02670190677182305</v>
       </c>
       <c r="F23">
-        <v>7.069431441068446</v>
+        <v>11.13636450253057</v>
       </c>
       <c r="G23">
-        <v>0.002644836549330525</v>
+        <v>0.0008346132129512888</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6723580913541127</v>
+        <v>1.260254481798455</v>
       </c>
       <c r="K23">
-        <v>1.219209360236448</v>
+        <v>1.727582150162192</v>
       </c>
       <c r="L23">
-        <v>0.1107931303957761</v>
+        <v>0.02345156153520778</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.560795107878278</v>
+        <v>1.420767167743662</v>
       </c>
       <c r="C24">
-        <v>0.0570843994261736</v>
+        <v>0.1827780611700973</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04540070095233162</v>
+        <v>0.02163769101364288</v>
       </c>
       <c r="F24">
-        <v>6.697692657312359</v>
+        <v>9.706291070858668</v>
       </c>
       <c r="G24">
-        <v>0.002652528908482615</v>
+        <v>0.0008500988711324098</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6289013267711425</v>
+        <v>1.104888356170761</v>
       </c>
       <c r="K24">
-        <v>1.176651243512623</v>
+        <v>1.464596370381315</v>
       </c>
       <c r="L24">
-        <v>0.1186288815064831</v>
+        <v>0.01417527627045168</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.536658821666634</v>
+        <v>1.178557909214049</v>
       </c>
       <c r="C25">
-        <v>0.04692019653680291</v>
+        <v>0.1468400928169586</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04658181274767337</v>
+        <v>0.01679228646031206</v>
       </c>
       <c r="F25">
-        <v>6.299531282200405</v>
+        <v>8.231811478034018</v>
       </c>
       <c r="G25">
-        <v>0.002661424311464301</v>
+        <v>0.0008670418446046805</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5816370202915238</v>
+        <v>0.9442348911884864</v>
       </c>
       <c r="K25">
-        <v>1.134388595988071</v>
+        <v>1.198659734394397</v>
       </c>
       <c r="L25">
-        <v>0.1280132563442749</v>
+        <v>0.006761528363728786</v>
       </c>
       <c r="M25">
         <v>0</v>
